--- a/AL East Pitching.xlsx
+++ b/AL East Pitching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96d8f57e66b541f6/Documents/GitHub/baseball model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{98873E48-6A5E-424B-A590-FFED2E0A548E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D3C8BB9-26EF-432D-811D-A45791E583FC}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{98873E48-6A5E-424B-A590-FFED2E0A548E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E26489A-9E7D-4B8D-A773-8FBFB6C4E849}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{29A622C4-B291-4219-8092-863854B7D10A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{29A622C4-B291-4219-8092-863854B7D10A}"/>
   </bookViews>
   <sheets>
     <sheet name="BOS" sheetId="1" r:id="rId1"/>
@@ -16360,8 +16360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B946D8A-CB13-4595-B84D-C36F8DF4B3E9}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23314,7 +23314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BBF316-5862-45A8-BD94-C9736C20EC1D}">
   <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
